--- a/Frontend/src/assets/template File/Sample_pflt_other_info.xlsx
+++ b/Frontend/src/assets/template File/Sample_pflt_other_info.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A65C09-4CBB-424A-AF8C-DB62FFD370D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="other_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,64 +31,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>INPUTS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Determination Date</t>
+  </si>
+  <si>
+    <t>Minimum Equity Amount Floor</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Exchange Rates</t>
+  </si>
+  <si>
+    <t>Cash Current and PreBorrowing</t>
+  </si>
+  <si>
+    <t>Borrowing</t>
+  </si>
+  <si>
+    <t>Additional Expenses 1</t>
+  </si>
+  <si>
+    <t>Additional Expenses 2</t>
+  </si>
+  <si>
+    <t>Additional Expenses 3</t>
+  </si>
+  <si>
+    <t>Current Credit Facility Balance</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
   <si>
     <t>Values</t>
-  </si>
-  <si>
-    <t>Determination Date</t>
-  </si>
-  <si>
-    <t>Minimum Equity Amount Floor</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Exchange Rates</t>
-  </si>
-  <si>
-    <t>Cash Current and PreBorrowing</t>
-  </si>
-  <si>
-    <t>Borrowing</t>
-  </si>
-  <si>
-    <t>Additional Expenses 1</t>
-  </si>
-  <si>
-    <t>Additional Expenses 2</t>
-  </si>
-  <si>
-    <t>Additional Expenses 3</t>
-  </si>
-  <si>
-    <t>Current Credit Facility Balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,27 +115,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_CS-CLT 2007-1 Monthly Report 8-15-2007" xfId="1" xr:uid="{F6058AF9-9780-486E-BD98-941C07EFCDAB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -187,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -453,45 +457,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45427</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6000000</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="1"/>
@@ -502,64 +510,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF3C9D7-4143-4274-8790-DD9A506F3321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="A2:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="4">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="4"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="4"/>
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.1134999999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="4"/>
